--- a/Test Data/TC_200_Verify_Deletion_Of_IS_Devices_To_EXI800.xlsx
+++ b/Test Data/TC_200_Verify_Deletion_Of_IS_Devices_To_EXI800.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125C4F7-1681-46C6-BEC9-2D403900893C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices" sheetId="6" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -176,36 +175,12 @@
   </si>
   <si>
     <t>To verify deletion of IS devices in Physical layout</t>
-  </si>
-  <si>
-    <t>1 / 1</t>
-  </si>
-  <si>
-    <t>1 / 2</t>
-  </si>
-  <si>
-    <t>1 / 3</t>
-  </si>
-  <si>
-    <t>1 / 4</t>
-  </si>
-  <si>
-    <t>1 / 5</t>
-  </si>
-  <si>
-    <t>1 / 6</t>
-  </si>
-  <si>
-    <t>1 / 7</t>
-  </si>
-  <si>
-    <t>1 / 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,6 +313,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -359,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +614,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -665,12 +640,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -679,10 +654,10 @@
       <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -756,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,12 +749,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -789,10 +764,10 @@
       <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="6"/>
@@ -872,8 +847,8 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>49</v>
+      <c r="E8" s="11">
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>9</v>
@@ -892,8 +867,8 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>50</v>
+      <c r="E9" s="11">
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -912,8 +887,8 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>51</v>
+      <c r="E10" s="11">
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>11</v>
@@ -932,8 +907,8 @@
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>52</v>
+      <c r="E11" s="11">
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>19</v>
@@ -952,8 +927,8 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>53</v>
+      <c r="E12" s="11">
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>18</v>
@@ -972,8 +947,8 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>54</v>
+      <c r="E13" s="11">
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>17</v>
@@ -992,8 +967,8 @@
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>55</v>
+      <c r="E14" s="11">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>16</v>
@@ -1012,8 +987,8 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>56</v>
+      <c r="E15" s="11">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>15</v>
@@ -1030,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82316A49-D036-48F9-83DB-0B39B064C4D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1046,12 +1021,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1060,10 +1035,10 @@
       <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1115,11 +1090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86794A98-EEFC-4F67-A583-684FE19F5193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,12 +1109,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1149,10 +1124,10 @@
       <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="6"/>
@@ -1232,8 +1207,8 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>50</v>
+      <c r="E8" s="11">
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -1249,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119372F-65FB-40BB-8159-5C1CA68BD5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1267,12 +1242,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1280,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="6"/>
